--- a/Database_DFT.xlsx
+++ b/Database_DFT.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shambhavitannir/Desktop/POSTDOC_Jeffries-EL/NSF-ADAPT/AI_Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F5703-61A1-B74A-9FC8-AD92D39EAB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C9CFE9-B752-A54E-8A8A-58949BB099AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14140" xr2:uid="{A6F20787-0C6A-1641-B0C0-57BAC2D963D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1635,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1802,19 +1802,35 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2134,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16989A5C-87A9-564B-8686-3556D380911D}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2536,7 +2552,7 @@
       <c r="A12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="53">
@@ -2573,7 +2589,7 @@
       <c r="A13" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>109</v>
       </c>
       <c r="C13" s="53">
@@ -2606,75 +2622,77 @@
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="56" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:13" s="69" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="65">
         <v>-5.6174999999999997</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="65">
         <v>-2.3580000000000001</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="65">
         <v>3.2594999999999996</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="65">
         <v>439.7</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="65">
         <v>178.10050000000001</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="66">
         <v>151.63299999999998</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="67">
         <v>2.182131</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="53">
+      <c r="J14" s="68"/>
+      <c r="K14" s="65">
         <v>473</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="53">
+      <c r="L14" s="68"/>
+      <c r="M14" s="65">
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:13" s="56" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="53">
         <v>-5.6958000000000002</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="53">
         <v>-2.988</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="53">
         <v>2.7078000000000002</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="53">
         <v>544.79999999999995</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="53">
         <v>157.18099999999998</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="53">
         <v>159.93900000000002</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="54">
         <v>2.5932089999999999</v>
       </c>
-      <c r="K15" s="15">
+      <c r="J15" s="55"/>
+      <c r="K15" s="53">
         <v>535</v>
       </c>
-      <c r="M15" s="15">
+      <c r="L15" s="55"/>
+      <c r="M15" s="53">
         <v>531</v>
       </c>
     </row>
@@ -3905,30 +3923,34 @@
       <c r="B52" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="59">
-        <v>-5.4188000000000001</v>
-      </c>
-      <c r="D52" s="59">
-        <v>-1.9957</v>
-      </c>
-      <c r="E52" s="59">
-        <v>3.4230999999999998</v>
-      </c>
-      <c r="F52" s="59">
-        <v>397.2</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="59">
-        <v>179.8135</v>
-      </c>
-      <c r="I52" s="60">
-        <v>1.8916580000000001</v>
-      </c>
-      <c r="J52" s="55"/>
-      <c r="K52" s="59">
-        <v>402</v>
+      <c r="C52" s="70">
+        <v>-5.4252000000000002</v>
+      </c>
+      <c r="D52" s="70">
+        <v>-2.0206</v>
+      </c>
+      <c r="E52" s="70">
+        <f t="shared" ref="E52" si="0">D52-C52</f>
+        <v>3.4046000000000003</v>
+      </c>
+      <c r="F52" s="70">
+        <v>399.5</v>
+      </c>
+      <c r="G52" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="70">
+        <f>AVERAGE(179.275,179.275)</f>
+        <v>179.27500000000001</v>
+      </c>
+      <c r="I52" s="70">
+        <v>-0.94140000000000001</v>
+      </c>
+      <c r="J52" s="70">
+        <v>1.8623970000000001</v>
+      </c>
+      <c r="K52" s="70">
+        <v>19.38571</v>
       </c>
       <c r="L52" s="59"/>
       <c r="M52" s="59">
@@ -4073,10 +4095,10 @@
       <c r="M56" s="30"/>
     </row>
     <row r="57" spans="1:13" s="56" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="62" t="s">
         <v>152</v>
       </c>
       <c r="C57" s="55">
@@ -5391,5 +5413,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>